--- a/Resultados Modelos.xlsx
+++ b/Resultados Modelos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\12° SEMESTRE\TCC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18439491-6602-4ED2-AB38-3E0AFDB03EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8ABB8E-98BD-4AD6-A653-5D9EF11F81BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0067E3D8-8941-475B-8720-55FE7534718B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0067E3D8-8941-475B-8720-55FE7534718B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sem Tunagem" sheetId="1" r:id="rId1"/>
+    <sheet name="Com Tunagem" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$H$21:$O$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sem Tunagem'!$H$16:$O$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
   <si>
     <t>Decision Tree</t>
   </si>
@@ -83,15 +84,18 @@
   <si>
     <t>XGBoosting</t>
   </si>
+  <si>
+    <t>Com Fine Tuning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +116,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,22 +170,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A6A28B-EA82-493D-B220-8AC24EE8AEA4}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,799 +533,1618 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.82442738404923499</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.19149349968487001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.243109205355375</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.33532465205751399</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>0.82904854960282204</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0.204877196049296</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.25814977973568198</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.34886143771394501</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>0.35199999999999998</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>0.873</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>0.127</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.67358670135143695</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.157727683839399</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.25465856220222399</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>0.66071526519915802</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.67567190315458203</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.16039368375513699</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.25823490147139899</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>0.66215210596815</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>0.66500000000000004</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>0.67700000000000005</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="7">
         <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.802956665186219</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.211496385757727</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.29531677929117001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.48928696736087801</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0.80460878613303499</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>0.216946057008675</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>0.30167800453514698</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0.495014139008781</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>0.496</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>0.83399999999999996</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <v>0.504</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="15">
         <v>0.86581223695619902</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="15">
         <v>0.231440183565886</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="15">
         <v>0.242230747733056</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="15">
         <v>0.25415912657078898</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="15">
         <v>0.86447732406161903</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="15">
         <v>0.22648805413616899</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="15">
         <v>0.23495702005730601</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="15">
         <v>0.24408394106265799</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="16">
         <v>0.252</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="16">
         <v>0.92200000000000004</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="16">
         <v>0.748</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.85714104434997695</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.24065507004630701</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.27522135318529301</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.32143352632182098</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.85704134202979398</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.24980741718939101</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.28723269644438798</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.33784789403185</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.33784789403185</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.90543371204239298</v>
+      </c>
+      <c r="N16" s="2">
+        <v>9.4566287957606701E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.66215210596815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.72071146077871495</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.20081165855215699</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.31894122638203598</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.77479483074032496</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.71870162170393104</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.20031037827352</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.31778174432202799</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.768417919333234</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.768417919333234</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.71406772372272398</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.28593227627727602</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.231582080666765</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.82394941099338004</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.25140084265434098</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.34487168085704301</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.54907242903225695</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.82586351293048699</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.25663655316191802</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.349898147709507</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.54963536240511901</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.54963536240511901</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.85160986030768304</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.14839013969231599</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.45036463759487999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.90796692257259404</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.35687392288814701</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.17157909659779599</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.11296110827980201</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.90589549019110205</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.34600088378258897</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.174348697394789</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.11653519869028101</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.11653519869028101</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.97946925243108995</v>
+      </c>
+      <c r="N19" s="15">
+        <v>2.0530747568909699E-2</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.88346480130971805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="10">
-        <v>0.85714104434997695</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.24065507004630701</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.27522135318529301</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.32143352632182098</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="B26" s="5">
+        <v>0.83025188757058499</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.24052070439045101</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.31790519275307599</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.46880573250907798</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="3">
-        <v>0.85704134202979398</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.24980741718939101</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.28723269644438798</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0.33784789403185</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.33784789403185</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.90543371204239298</v>
-      </c>
-      <c r="N21" s="3">
-        <v>9.4566287957606701E-2</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0.66215210596815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="H26" s="2">
+        <v>0.82927695860721196</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.24575311438278499</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.32608695652173902</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.484447090340824</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.484447090340824</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.86141745390985802</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.13858254609014101</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.515552909659175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="10">
-        <v>0.72071146077871495</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.20081165855215699</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.31894122638203598</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.77479483074032496</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="B27" s="8">
+        <v>0.73142567095996402</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.21003096353226899</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.33182033530173499</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.79004586289566903</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0.71870162170393104</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.20031037827352</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0.31778174432202799</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0.768417919333234</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0.768417919333234</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0.71406772372272398</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0.28593227627727602</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0.231582080666765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="H27" s="2">
+        <v>0.73225388929776902</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.21298846445535399</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.33589323933022702</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.79416579848191604</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.79416579848191604</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.72648327715121996</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.27351672284877898</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.20583420151808299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="10">
-        <v>0.82394941099338004</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.25140084265434098</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.34487168085704301</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.54907242903225695</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="B28" s="8">
+        <v>0.82982467271535199</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.26631544385928702</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.36483177802312999</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.57911977925871805</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="3">
-        <v>0.82586351293048699</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.25663655316191802</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0.349898147709507</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0.54963536240511901</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0.54963536240511901</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0.85160986030768304</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0.14839013969231599</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0.45036463759487999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="H28" s="5">
+        <v>0.83378169174935901</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.27500352659049199</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.37316361200172199</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.58029468670933104</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.58029468670933104</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.85740840928322704</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.14259159071677199</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.41970531329066801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="7">
-        <v>0.90796692257259404</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.35687392288814701</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.17157909659779599</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.11296110827980201</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="B29" s="15">
+        <v>0.91574984666793502</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.50471498470074405</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.159398489230275</v>
+      </c>
+      <c r="E29" s="15">
+        <v>9.4660522231453895E-2</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="7">
-        <v>0.90589549019110205</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.34600088378258897</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.174348697394789</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0.11653519869028101</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.11653519869028101</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0.97946925243108995</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2.0530747568909699E-2</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.88346480130971805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="10">
-        <v>0.83025188757058499</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.24052070439045101</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.31790519275307599</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.46880573250907798</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.82927695860721196</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0.24575311438278499</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0.32608695652173902</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0.484447090340824</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0.484447090340824</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0.86141745390985802</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0.13858254609014101</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0.515552909659175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0.73142567095996402</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.21003096353226899</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.33182033530173499</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0.79004586289566903</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.73225388929776902</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.21298846445535399</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0.33589323933022702</v>
-      </c>
-      <c r="K36" s="7">
-        <v>0.79416579848191604</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0.79416579848191604</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0.72648327715121996</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0.27351672284877898</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0.20583420151808299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="10">
-        <v>0.82982467271535199</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.26631544385928702</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0.36483177802312999</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.57911977925871805</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.83378169174935901</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.27500352659049199</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0.37316361200172199</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.58029468670933104</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.58029468670933104</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0.85740840928322704</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.14259159071677199</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.41970531329066801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0.91574984666793502</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.50471498470074405</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.159398489230275</v>
-      </c>
-      <c r="E38" s="10">
-        <v>9.4660522231453895E-2</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="H29" s="15">
         <v>0.915970865162551</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I29" s="15">
         <v>0.54079058031959604</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J29" s="15">
         <v>0.16262013151239199</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K29" s="15">
         <v>9.56987646971275E-2</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L29" s="15">
         <v>9.56987646971275E-2</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M29" s="15">
         <v>0.99242581880227998</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N29" s="15">
         <v>7.57418119771942E-3</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O29" s="15">
         <v>0.90430123530287199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G33:O33"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G32:O32"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="G4:O4"/>
     <mergeCell ref="G3:O3"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G24:O24"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:O23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9382838A-988D-4701-A814-5F85D1CBA44C}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.81605228094663995</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.19567347140140601</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.25814504443582198</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.379239234249239</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.82033093926858303</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.20653202903123999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.26996648620778502</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.38964131567197502</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.38964131567197502</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.86047414929182797</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.139525850708172</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.61035868432802498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.72455216462576399</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.20332288835114801</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.32198664553339601</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.77456394249420801</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.71462832779230001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.19939001143728499</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.317460317460317</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.77838964131567201</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.77838964131567201</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.70868533854925297</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.29131466145074703</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.22161035868432799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.80488970665989901</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.215877545556864</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.30123801268524503</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.49832517968297102</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.80710859579219796</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.222302252488213</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.30876267564003401</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.50528352433397805</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.50528352433397805</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.50528352433397805</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.164759249240501</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.494716475666021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.87318063574646199</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.23710092462468599</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.23182680359504801</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.22681518587226401</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.87267466944141303</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.23543495610534701</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.227202711028958</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.219526715285012</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0.219526715285012</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0.93355251293575803</v>
+      </c>
+      <c r="N9" s="15">
+        <v>6.6447487064241806E-2</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.780473284714987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.85037751411712403</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.240998662138252</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.288544097168842</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.35954737965016897</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.84932619343704796</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.24538180381309799</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.29497684360527199</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.369697871707099</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.369697871707099</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0.89403082386560595</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.10596917613439299</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.6303021282929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.72080874732990696</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.20748738827443999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.33105543687289102</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.81858161236506</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.72346014262873304</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.211292423197732</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.33608530083777599</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.82095549933025702</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.82095549933025702</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.71437291051091001</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.28562708948908899</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0.17904450066974201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.82495188545566001</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.25387093030833002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.34815786989601799</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.55394751000706599</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.82738623962642399</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.26030640668523602</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.35466578110916003</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.55633278761720495</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.55633278761720495</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.85265026981286496</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0.14734973018713499</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.443667212382795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.91086014000803595</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.394845306038001</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.16622191984135501</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.105292529339284</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.91001954165926402</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.40106382978723398</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0.17536922898011301</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0.11221908022027</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.11221908022027</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.98437998529554505</v>
+      </c>
+      <c r="N19" s="17">
+        <v>1.56200147044543E-2</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0.88778091977972895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0.104</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0.104</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="N29" s="15">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G24:O24"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>